--- a/tut05/output/0501CS08.xlsx
+++ b/tut05/output/0501CS08.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.346938775510203</v>
+        <v>8.35</v>
       </c>
       <c r="C6" t="n">
-        <v>7.772727272727272</v>
+        <v>7.77</v>
       </c>
       <c r="D6" t="n">
-        <v>7.651162790697675</v>
+        <v>7.65</v>
       </c>
       <c r="E6" t="n">
-        <v>7.723404255319149</v>
+        <v>7.72</v>
       </c>
       <c r="F6" t="n">
-        <v>8.047619047619047</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>8.585365853658537</v>
+        <v>8.59</v>
       </c>
       <c r="I6" t="n">
         <v>8.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.346938775510203</v>
+        <v>8.35</v>
       </c>
       <c r="C8" t="n">
-        <v>8.075268817204302</v>
+        <v>8.08</v>
       </c>
       <c r="D8" t="n">
-        <v>7.941176470588236</v>
+        <v>7.94</v>
       </c>
       <c r="E8" t="n">
-        <v>7.885245901639344</v>
+        <v>7.89</v>
       </c>
       <c r="F8" t="n">
-        <v>7.915555555555556</v>
+        <v>7.92</v>
       </c>
       <c r="G8" t="n">
-        <v>8.071698113207548</v>
+        <v>8.07</v>
       </c>
       <c r="H8" t="n">
-        <v>8.140522875816993</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.222543352601155</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
   </sheetData>
